--- a/Recycling/A2/Act/A2_act_Min_hist.xlsx
+++ b/Recycling/A2/Act/A2_act_Min_hist.xlsx
@@ -587,10 +587,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -965,10 +965,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1343,10 +1343,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1721,10 +1721,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2099,10 +2099,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2477,16 +2477,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.006864396</v>
+        <v>-0.0201894</v>
       </c>
       <c r="E7">
-        <v>-0.0132139623</v>
+        <v>-0.038864595</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.01016658747684483</v>
+        <v>-0.02990172787307302</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2557,16 +2557,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000103224</v>
+        <v>-0.0003036</v>
       </c>
       <c r="E11">
-        <v>-0.0001987062</v>
+        <v>-0.0005844300000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.09540951324423609</v>
+        <v>-0.2806162154242237</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2637,16 +2637,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.00012903</v>
+        <v>-0.0003795</v>
       </c>
       <c r="E15">
-        <v>-0.00024838275</v>
+        <v>-0.0007305375</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.001955112976316313</v>
+        <v>-0.005750332283283272</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2717,16 +2717,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.00012903</v>
+        <v>-0.0003795</v>
       </c>
       <c r="E19">
-        <v>-0.00024838275</v>
+        <v>-0.0007305375</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.001955112976316313</v>
+        <v>-0.005750332283283272</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2855,16 +2855,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.006503111999999999</v>
+        <v>-0.0191268</v>
       </c>
       <c r="E7">
-        <v>-0.0125184906</v>
+        <v>-0.03681909</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.02033317495368966</v>
+        <v>-0.05980345574614604</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2935,16 +2935,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000206448</v>
+        <v>-0.0006072</v>
       </c>
       <c r="E11">
-        <v>-0.0003974124000000001</v>
+        <v>-0.00116886</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.08133269981475863</v>
+        <v>-0.2392138229845842</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3015,16 +3015,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.00025806</v>
+        <v>-0.0007589999999999999</v>
       </c>
       <c r="E15">
-        <v>-0.0004967655</v>
+        <v>-0.001461075</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.003910225952632626</v>
+        <v>-0.01150066456656654</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3095,16 +3095,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.00025806</v>
+        <v>-0.0007589999999999999</v>
       </c>
       <c r="E19">
-        <v>-0.0004967655</v>
+        <v>-0.001461075</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.003910225952632626</v>
+        <v>-0.01150066456656654</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3233,16 +3233,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.006141827999999999</v>
+        <v>-0.0180642</v>
       </c>
       <c r="E7">
-        <v>-0.0118230189</v>
+        <v>-0.034773585</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.03049976243053449</v>
+        <v>-0.08970518361921906</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3313,16 +3313,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000309672</v>
+        <v>-0.0009108</v>
       </c>
       <c r="E11">
-        <v>-0.0005961186000000001</v>
+        <v>-0.00175329</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.06725588638528118</v>
+        <v>-0.1978114305449446</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3393,16 +3393,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.00038709</v>
+        <v>-0.0011385</v>
       </c>
       <c r="E15">
-        <v>-0.00074514825</v>
+        <v>-0.0021916125</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.005865338928948939</v>
+        <v>-0.01725099684984982</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3473,16 +3473,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.00038709</v>
+        <v>-0.0011385</v>
       </c>
       <c r="E19">
-        <v>-0.00074514825</v>
+        <v>-0.0021916125</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.005865338928948939</v>
+        <v>-0.01725099684984982</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3611,16 +3611,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.005780543999999999</v>
+        <v>-0.0170016</v>
       </c>
       <c r="E7">
-        <v>-0.0111275472</v>
+        <v>-0.03272808</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.04066634990737931</v>
+        <v>-0.1196069114922921</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3691,16 +3691,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.0004128960000000001</v>
+        <v>-0.0012144</v>
       </c>
       <c r="E11">
-        <v>-0.0007948248000000001</v>
+        <v>-0.002337720000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.05317907295580372</v>
+        <v>-0.156409038105305</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3771,16 +3771,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.00051612</v>
+        <v>-0.001518</v>
       </c>
       <c r="E15">
-        <v>-0.000993531</v>
+        <v>-0.00292215</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.007820451905265252</v>
+        <v>-0.02300132913313309</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3851,16 +3851,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.00051612</v>
+        <v>-0.001518</v>
       </c>
       <c r="E19">
-        <v>-0.000993531</v>
+        <v>-0.00292215</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.007820451905265252</v>
+        <v>-0.02300132913313309</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3989,16 +3989,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.005419259999999999</v>
+        <v>-0.01593899999999999</v>
       </c>
       <c r="E7">
-        <v>-0.0104320755</v>
+        <v>-0.03068257499999999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.05083293738422415</v>
+        <v>-0.1495086393653651</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4069,16 +4069,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.0005161200000000001</v>
+        <v>-0.001518</v>
       </c>
       <c r="E11">
-        <v>-0.0009935310000000002</v>
+        <v>-0.002922150000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.03910225952632627</v>
+        <v>-0.1150066456656655</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4149,16 +4149,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0006451499999999999</v>
+        <v>-0.0018975</v>
       </c>
       <c r="E15">
-        <v>-0.00124191375</v>
+        <v>-0.0036526875</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.009775564881581565</v>
+        <v>-0.02875166141641636</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4229,16 +4229,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0006451499999999999</v>
+        <v>-0.0018975</v>
       </c>
       <c r="E19">
-        <v>-0.00124191375</v>
+        <v>-0.0036526875</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.009775564881581565</v>
+        <v>-0.02875166141641636</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4367,16 +4367,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.005057975999999998</v>
+        <v>-0.01487639999999999</v>
       </c>
       <c r="E7">
-        <v>-0.009736603799999997</v>
+        <v>-0.02863706999999999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.06099952486106897</v>
+        <v>-0.1794103672384381</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4447,16 +4447,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.0006193440000000001</v>
+        <v>-0.0018216</v>
       </c>
       <c r="E11">
-        <v>-0.0011922372</v>
+        <v>-0.003506580000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.02502544609684881</v>
+        <v>-0.0736042532260259</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4527,16 +4527,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0007741799999999999</v>
+        <v>-0.002277</v>
       </c>
       <c r="E15">
-        <v>-0.0014902965</v>
+        <v>-0.004383224999999999</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01173067785789788</v>
+        <v>-0.03450199369969963</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4607,16 +4607,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0007741799999999999</v>
+        <v>-0.002277</v>
       </c>
       <c r="E19">
-        <v>-0.0014902965</v>
+        <v>-0.004383224999999999</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01173067785789788</v>
+        <v>-0.03450199369969963</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4745,10 +4745,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5123,16 +5123,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5203,16 +5203,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5283,16 +5283,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5363,16 +5363,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5501,16 +5501,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5581,16 +5581,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5661,16 +5661,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5741,16 +5741,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5879,16 +5879,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5959,16 +5959,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6039,16 +6039,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6119,16 +6119,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6257,16 +6257,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6337,16 +6337,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6417,16 +6417,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6497,16 +6497,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6635,16 +6635,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6715,16 +6715,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6795,16 +6795,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6875,16 +6875,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7013,16 +7013,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7093,16 +7093,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7173,16 +7173,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7253,16 +7253,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7391,16 +7391,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7471,16 +7471,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7551,16 +7551,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7631,16 +7631,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7769,16 +7769,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7849,16 +7849,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7929,16 +7929,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8009,16 +8009,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8147,16 +8147,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8227,16 +8227,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8307,16 +8307,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8387,16 +8387,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8525,16 +8525,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8605,16 +8605,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8685,16 +8685,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8765,16 +8765,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8903,10 +8903,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9281,16 +9281,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9361,16 +9361,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9441,16 +9441,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9521,16 +9521,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -9659,16 +9659,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9739,16 +9739,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9819,16 +9819,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9899,16 +9899,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10037,16 +10037,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10117,16 +10117,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10197,16 +10197,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10277,16 +10277,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10415,16 +10415,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10495,16 +10495,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10575,16 +10575,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10655,16 +10655,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10793,16 +10793,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10873,16 +10873,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10953,16 +10953,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -11033,16 +11033,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -11171,16 +11171,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11251,16 +11251,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11331,16 +11331,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -11411,16 +11411,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -11549,16 +11549,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11629,16 +11629,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11709,16 +11709,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -11789,16 +11789,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -11927,16 +11927,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12007,16 +12007,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12087,16 +12087,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -12167,16 +12167,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -12305,16 +12305,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12385,16 +12385,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12465,16 +12465,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -12545,16 +12545,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -12683,16 +12683,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12763,16 +12763,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12843,16 +12843,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -12923,16 +12923,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13061,10 +13061,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13150,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13439,16 +13439,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13519,16 +13519,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13599,16 +13599,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13679,16 +13679,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13817,16 +13817,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13897,16 +13897,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13977,16 +13977,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -14057,16 +14057,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14195,16 +14195,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14275,16 +14275,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -14355,16 +14355,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -14435,16 +14435,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14573,16 +14573,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14653,16 +14653,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -14733,16 +14733,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -14813,16 +14813,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14951,16 +14951,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -15031,16 +15031,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -15111,16 +15111,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -15191,16 +15191,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -15329,16 +15329,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -15409,16 +15409,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -15489,16 +15489,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -15569,16 +15569,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -15707,16 +15707,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -15787,16 +15787,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -15867,16 +15867,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -15947,16 +15947,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -16085,16 +16085,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -16165,16 +16165,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -16245,16 +16245,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -16325,16 +16325,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -16463,16 +16463,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -16543,16 +16543,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -16623,16 +16623,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -16703,16 +16703,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -16841,16 +16841,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -16921,16 +16921,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -17001,16 +17001,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -17081,16 +17081,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -17219,10 +17219,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -17597,16 +17597,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -17677,16 +17677,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -17757,16 +17757,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -17837,16 +17837,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -17975,16 +17975,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -18055,16 +18055,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -18135,16 +18135,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -18215,16 +18215,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -18353,16 +18353,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -18433,16 +18433,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -18513,16 +18513,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -18593,16 +18593,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -18731,16 +18731,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -18811,16 +18811,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -18891,16 +18891,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -18971,16 +18971,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -19109,16 +19109,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -19189,16 +19189,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -19269,16 +19269,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -19349,16 +19349,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -19487,16 +19487,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -19567,16 +19567,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -19647,16 +19647,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -19727,16 +19727,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -19865,16 +19865,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -19945,16 +19945,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -20025,16 +20025,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -20105,16 +20105,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -20243,16 +20243,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -20323,16 +20323,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -20403,16 +20403,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -20483,16 +20483,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -20621,16 +20621,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -20701,16 +20701,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -20781,16 +20781,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -20861,16 +20861,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -20999,16 +20999,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -21079,16 +21079,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -21159,16 +21159,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -21239,16 +21239,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -21377,10 +21377,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -21466,7 +21466,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -21755,16 +21755,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -21835,16 +21835,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -21915,16 +21915,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -21995,16 +21995,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -22133,16 +22133,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -22213,16 +22213,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -22293,16 +22293,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -22373,16 +22373,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -22511,16 +22511,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -22591,16 +22591,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -22671,16 +22671,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -22751,16 +22751,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -22889,16 +22889,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -22969,16 +22969,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -23049,16 +23049,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -23129,16 +23129,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -23267,16 +23267,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -23347,16 +23347,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -23427,16 +23427,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -23507,16 +23507,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -23645,16 +23645,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -23725,16 +23725,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -23805,16 +23805,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -23885,16 +23885,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -24023,16 +24023,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -24103,16 +24103,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -24183,16 +24183,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -24263,16 +24263,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -24401,16 +24401,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -24481,16 +24481,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -24561,16 +24561,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -24641,16 +24641,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -24779,16 +24779,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -24859,16 +24859,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -24939,16 +24939,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -25019,16 +25019,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -25157,16 +25157,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -25237,16 +25237,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -25317,16 +25317,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -25397,16 +25397,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -25535,10 +25535,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -25624,7 +25624,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -25913,16 +25913,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -25993,16 +25993,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -26073,16 +26073,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -26153,16 +26153,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -26291,16 +26291,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -26371,16 +26371,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -26451,16 +26451,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -26531,16 +26531,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -26669,16 +26669,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -26749,16 +26749,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -26829,16 +26829,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -26909,16 +26909,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27047,16 +27047,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -27127,16 +27127,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -27207,16 +27207,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -27287,16 +27287,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27425,16 +27425,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -27505,16 +27505,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -27585,16 +27585,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -27665,16 +27665,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27803,16 +27803,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -27883,16 +27883,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -27963,16 +27963,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -28043,16 +28043,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -28181,16 +28181,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -28261,16 +28261,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -28341,16 +28341,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -28421,16 +28421,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -28559,16 +28559,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -28639,16 +28639,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -28719,16 +28719,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -28799,16 +28799,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -28937,16 +28937,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -29017,16 +29017,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -29097,16 +29097,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -29177,16 +29177,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -29315,16 +29315,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -29395,16 +29395,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -29475,16 +29475,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -29555,16 +29555,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -29693,10 +29693,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -29782,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -30071,16 +30071,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -30151,16 +30151,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -30231,16 +30231,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -30311,16 +30311,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -30449,16 +30449,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -30529,16 +30529,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -30609,16 +30609,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -30689,16 +30689,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -30827,16 +30827,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -30907,16 +30907,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -30987,16 +30987,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -31067,16 +31067,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -31205,16 +31205,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -31285,16 +31285,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -31365,16 +31365,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -31445,16 +31445,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -31583,16 +31583,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -31663,16 +31663,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -31743,16 +31743,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -31823,16 +31823,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -31961,16 +31961,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32041,16 +32041,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -32121,16 +32121,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -32201,16 +32201,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -32339,16 +32339,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32419,16 +32419,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -32499,16 +32499,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -32579,16 +32579,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -32717,16 +32717,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32797,16 +32797,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -32877,16 +32877,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -32957,16 +32957,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -33095,16 +33095,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -33175,16 +33175,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -33255,16 +33255,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -33335,16 +33335,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -33473,16 +33473,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -33553,16 +33553,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -33633,16 +33633,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -33713,16 +33713,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -33851,10 +33851,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -33940,7 +33940,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -34229,16 +34229,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004696692</v>
+        <v>-0.0138138</v>
       </c>
       <c r="E7">
-        <v>-0.009041132100000002</v>
+        <v>-0.026591565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0711661123379138</v>
+        <v>-0.2093120951115111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -34309,16 +34309,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>-0.000722568</v>
+        <v>-0.0021252</v>
       </c>
       <c r="E11">
-        <v>-0.0013909434</v>
+        <v>-0.004091010000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.01094863266737135</v>
+        <v>-0.03220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -34389,16 +34389,16 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E15">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -34469,16 +34469,16 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>-0.0009032099999999999</v>
+        <v>-0.0026565</v>
       </c>
       <c r="E19">
-        <v>-0.00173867925</v>
+        <v>-0.0051137625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.01368579083421419</v>
+        <v>-0.0402523259829829</v>
       </c>
     </row>
     <row r="20" spans="1:7">

--- a/Recycling/A2/Act/A2_act_Min_hist.xlsx
+++ b/Recycling/A2/Act/A2_act_Min_hist.xlsx
@@ -138,7 +138,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
